--- a/pred_ohlcv/54_21/2019-10-25 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 OMG ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>13744.00162203986</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>15052.80852203986</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9215.789622039858</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8681.738922039858</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8577.732522039858</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8909.335522039857</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>9338.839022039858</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8280.616122039857</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7770.616322039858</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8283.593522039857</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8019.093622039857</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6768.150422039856</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6983.824722039856</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7671.415622039858</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>8565.551122039858</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>8066.134222039859</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>7686.134222039859</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11378.45202203986</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7183.730222039861</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>7058.830222039861</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>15287.23547319244</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>15049.45537319244</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>15439.08147319244</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>18286.34017319244</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>19237.94277319244</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>18345.53637319244</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>18395.01617319244</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>17895.01617319244</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>10501.03047319244</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 OMG ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>15052.80852203986</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9215.789622039858</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>8681.738922039858</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>8577.732522039858</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8909.335522039857</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>9338.839022039858</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8280.616122039857</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7770.616322039858</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8283.593522039857</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8019.093622039857</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6768.150422039856</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6983.824722039856</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7671.415622039858</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>8565.551122039858</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>11140.40517319244</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>14279.37497319244</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>15287.23547319244</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>14887.23547319244</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>15049.45537319244</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>15439.08147319244</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>18286.34017319244</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>19237.94277319244</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>18345.53637319244</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>18395.01617319244</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>17895.01617319244</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>10501.03047319244</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>10103.52547319244</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
